--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1804579.65999437</v>
+        <v>1839898.415320138</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914459</v>
+        <v>426806.9758914465</v>
       </c>
     </row>
     <row r="8">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.16776090941369</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,7 +709,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>48.83589518354164</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -794,7 +794,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>67.92775320576774</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>167.4063089439662</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>57.16776090941369</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>50.29171516770226</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>123.7922091700869</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>217.2394607108949</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>130.4655268502615</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>232.3303155802432</v>
       </c>
       <c r="G8" t="n">
-        <v>65.5944526828373</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>144.1995179303725</v>
       </c>
       <c r="X9" t="n">
-        <v>16.27083488906038</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>342.6108996486589</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>111.2486207844306</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H12" t="n">
-        <v>65.90747854024177</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>16.00101197885777</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>76.97279983537922</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>35.49839347624688</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>172.273653720516</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>86.82728021370161</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>141.8557190765646</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>80.79258128802716</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>121.8423286676191</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>4.774661184188194</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02127570389438</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.08993799274037</v>
+        <v>85.49923716356957</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>328.821497866159</v>
+        <v>107.7417409062288</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.33191364804614</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>159.3388108552989</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>182.6275281514783</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>150.997463311119</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>185.6677761546174</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>90.51206582944602</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>123.6039762133036</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>13.08993799274016</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>65.5499942116025</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>132.5785616334594</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
-        <v>118.4757064729897</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>132.1304135414941</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>47.23959131629378</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>201.7759861667536</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.064314025683926</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>43.76331341951727</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>59.19197445244095</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>204.7754144015329</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>361.3536978752814</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>110.6440585833984</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951727</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>31.51871451439819</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.474574650667135</v>
+        <v>77.06414976739519</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>211.7331526842234</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>205.5391567772158</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>19.04449791804963</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>127.6697129884935</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.11358388765709</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.00101197885771</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>83.27252003438673</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>27.18189894884222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7937537960548</v>
+        <v>65.90747854024187</v>
       </c>
       <c r="T39" t="n">
-        <v>38.97663790996543</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.79258128802718</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>182.6275281514783</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>372.3372057966914</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>26.73110927253554</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -3875,10 +3875,10 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>124.5780538636987</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>25.94935617649208</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>153.1789736827622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>26.73110927253577</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>7.064314025683926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>64.7588051995878</v>
+        <v>38.78966489179808</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>132.1304135414941</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>119.5452544581846</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>753.253405673024</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>753.253405673024</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>753.253405673024</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>753.253405673024</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>753.253405673024</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>753.253405673024</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>418.6697947459187</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>418.6697947459187</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>418.6697947459187</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>418.6697947459187</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>418.6697947459187</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>418.6697947459187</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>418.6697947459187</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>418.6697947459187</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y3" t="n">
-        <v>418.6697947459187</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4476,16 +4476,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4600,19 +4600,19 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>104.5536560184564</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W5" t="n">
-        <v>104.5536560184564</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X5" t="n">
-        <v>104.5536560184564</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5536560184564</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145.0779112883388</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C6" t="n">
-        <v>145.0779112883388</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>145.0779112883388</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4685,13 +4685,13 @@
         <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>509.4712485810199</v>
       </c>
       <c r="X6" t="n">
-        <v>521.0535470733607</v>
+        <v>301.6197483754871</v>
       </c>
       <c r="Y6" t="n">
-        <v>313.2932483084068</v>
+        <v>301.6197483754871</v>
       </c>
     </row>
     <row r="7">
@@ -4719,13 +4719,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F8" t="n">
-        <v>97.60815526925295</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>348.0024326625565</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.4227147053767</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>735.8335372470253</v>
+        <v>717.2315473459739</v>
       </c>
       <c r="X9" t="n">
-        <v>719.3983504903987</v>
+        <v>509.380047140441</v>
       </c>
       <c r="Y9" t="n">
-        <v>511.6380517254448</v>
+        <v>301.6197483754871</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1386.161193962289</v>
+        <v>980.1676108328863</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.089578155562</v>
+        <v>980.1676108328863</v>
       </c>
       <c r="D11" t="n">
-        <v>1040.089578155562</v>
+        <v>621.9019122261359</v>
       </c>
       <c r="E11" t="n">
-        <v>1040.089578155562</v>
+        <v>621.9019122261359</v>
       </c>
       <c r="F11" t="n">
-        <v>629.1036733659547</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G11" t="n">
         <v>210.9160074365284</v>
@@ -5041,19 +5041,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U11" t="n">
-        <v>1717.224081305859</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V11" t="n">
-        <v>1386.161193962289</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W11" t="n">
-        <v>1386.161193962289</v>
+        <v>1743.772701069778</v>
       </c>
       <c r="X11" t="n">
-        <v>1386.161193962289</v>
+        <v>1370.306942808698</v>
       </c>
       <c r="Y11" t="n">
-        <v>1386.161193962289</v>
+        <v>980.1676108328863</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>882.5823026510593</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>708.1292733699323</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>559.1948637086811</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>399.9574087032256</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>253.4228507301105</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>115.3929631792721</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H12" t="n">
         <v>48.81975253256327</v>
@@ -5120,25 +5120,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5147,25 +5147,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.646795369816</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.409438641614</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1258.557938436081</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>1050.797639671127</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="C13" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="D13" t="n">
-        <v>351.2209996437976</v>
+        <v>274.4831489789758</v>
       </c>
       <c r="E13" t="n">
-        <v>335.058361281315</v>
+        <v>126.5700553965827</v>
       </c>
       <c r="F13" t="n">
-        <v>188.1684137834047</v>
+        <v>126.5700553965827</v>
       </c>
       <c r="G13" t="n">
-        <v>188.1684137834047</v>
+        <v>126.5700553965827</v>
       </c>
       <c r="H13" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5202,7 +5202,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W13" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X13" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="Y13" t="n">
-        <v>351.2209996437976</v>
+        <v>424.5997883913116</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>736.5727550803538</v>
+        <v>1210.938176968775</v>
       </c>
       <c r="C14" t="n">
-        <v>736.5727550803538</v>
+        <v>1210.938176968775</v>
       </c>
       <c r="D14" t="n">
-        <v>378.3070564736033</v>
+        <v>1210.938176968775</v>
       </c>
       <c r="E14" t="n">
-        <v>378.3070564736033</v>
+        <v>825.1499243705309</v>
       </c>
       <c r="F14" t="n">
-        <v>378.3070564736033</v>
+        <v>414.1640195809234</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3070564736033</v>
+        <v>414.1640195809234</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256327</v>
+        <v>84.67671563988335</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N14" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O14" t="n">
         <v>2037.925350935285</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W14" t="n">
-        <v>1687.325718757172</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X14" t="n">
-        <v>1513.311927120287</v>
+        <v>1597.538017032897</v>
       </c>
       <c r="Y14" t="n">
-        <v>1123.172595144476</v>
+        <v>1597.538017032897</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>842.2405468607036</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>667.7875175795766</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>518.8531079183253</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>359.6156529128699</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225003</v>
+        <v>161.1406371339188</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593121</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5402,7 +5402,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1010.455883880772</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5439,43 +5439,43 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>412.9009368039365</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>269.6123316760934</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W16" t="n">
-        <v>269.6123316760934</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X16" t="n">
         <v>269.6123316760934</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1383.854442904611</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C17" t="n">
-        <v>1014.891925964199</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D17" t="n">
-        <v>1014.891925964199</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E17" t="n">
-        <v>629.1036733659547</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F17" t="n">
-        <v>629.1036733659547</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T17" t="n">
-        <v>2152.282423226541</v>
+        <v>2136.635919435379</v>
       </c>
       <c r="U17" t="n">
-        <v>2152.282423226541</v>
+        <v>1882.856225447261</v>
       </c>
       <c r="V17" t="n">
-        <v>2147.459533141502</v>
+        <v>1551.793338103691</v>
       </c>
       <c r="W17" t="n">
-        <v>2147.459533141502</v>
+        <v>1199.024682833577</v>
       </c>
       <c r="X17" t="n">
-        <v>1773.993774880422</v>
+        <v>825.5589245724968</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.854442904611</v>
+        <v>435.419592596685</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
         <v>1557.865593173221</v>
@@ -5618,10 +5618,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2384.400479452513</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2224.002748345386</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T18" t="n">
         <v>2224.002748345386</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.04191212118991</v>
+        <v>135.1826183543507</v>
       </c>
       <c r="C19" t="n">
-        <v>62.04191212118991</v>
+        <v>135.1826183543507</v>
       </c>
       <c r="D19" t="n">
-        <v>62.04191212118991</v>
+        <v>135.1826183543507</v>
       </c>
       <c r="E19" t="n">
-        <v>62.04191212118991</v>
+        <v>135.1826183543507</v>
       </c>
       <c r="F19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="U19" t="n">
-        <v>351.4590821581505</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="V19" t="n">
-        <v>351.4590821581505</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="W19" t="n">
-        <v>62.04191212118991</v>
+        <v>135.1826183543507</v>
       </c>
       <c r="X19" t="n">
-        <v>62.04191212118991</v>
+        <v>135.1826183543507</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.04191212118991</v>
+        <v>135.1826183543507</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.699353998361</v>
+        <v>872.9253503912705</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.73683705795</v>
+        <v>872.9253503912705</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.73683705795</v>
+        <v>872.9253503912705</v>
       </c>
       <c r="E20" t="n">
-        <v>791.9485844597052</v>
+        <v>487.1370977930263</v>
       </c>
       <c r="F20" t="n">
-        <v>380.9626796700977</v>
+        <v>487.1370977930263</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2190.61837996229</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U20" t="n">
-        <v>1936.838685974173</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V20" t="n">
-        <v>1936.838685974173</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W20" t="n">
-        <v>1936.838685974173</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="X20" t="n">
-        <v>1936.838685974173</v>
+        <v>1263.064682367082</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.699353998361</v>
+        <v>872.9253503912705</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>744.1456658227286</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C21" t="n">
-        <v>569.6926365416016</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D21" t="n">
-        <v>420.7582268803504</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E21" t="n">
-        <v>261.5207718748949</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F21" t="n">
-        <v>114.9862139017798</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
         <v>114.9862139017798</v>
@@ -5834,10 +5834,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225004</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478937</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M21" t="n">
         <v>1158.640861843456</v>
@@ -5855,28 +5855,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2405.29882496347</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2244.901093856344</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2045.539770703513</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="U21" t="n">
-        <v>1817.362266773227</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V21" t="n">
-        <v>1582.210158541485</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W21" t="n">
-        <v>1327.972801813283</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X21" t="n">
-        <v>1120.12130160775</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3610028427966</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581505</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V22" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W22" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X22" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1572.822125467577</v>
+        <v>980.4169119745452</v>
       </c>
       <c r="C23" t="n">
-        <v>1203.859608527166</v>
+        <v>980.4169119745452</v>
       </c>
       <c r="D23" t="n">
-        <v>845.5939099204151</v>
+        <v>622.1512133677948</v>
       </c>
       <c r="E23" t="n">
-        <v>459.8056573221708</v>
+        <v>236.3629607695505</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256327</v>
+        <v>236.3629607695505</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>236.3629607695505</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -6022,19 +6022,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2349.561297507511</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2349.561297507511</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W23" t="n">
-        <v>2349.561297507511</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="X23" t="n">
-        <v>2349.561297507511</v>
+        <v>1757.156084014479</v>
       </c>
       <c r="Y23" t="n">
-        <v>1959.421965531699</v>
+        <v>1367.016752038667</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M24" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>515.785668455199</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
-        <v>346.8494855272921</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D25" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>515.785668455199</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>515.785668455199</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>515.785668455199</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>515.785668455199</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V25" t="n">
-        <v>515.785668455199</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W25" t="n">
-        <v>515.785668455199</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
-        <v>515.785668455199</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y25" t="n">
-        <v>515.785668455199</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.235634009152</v>
+        <v>1280.768542226082</v>
       </c>
       <c r="C26" t="n">
-        <v>825.27311706874</v>
+        <v>911.8060252856701</v>
       </c>
       <c r="D26" t="n">
-        <v>467.0074184619895</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E26" t="n">
-        <v>467.0074184619895</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N26" t="n">
         <v>1672.394424063531</v>
@@ -6244,34 +6244,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V26" t="n">
-        <v>2307.069887604468</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="W26" t="n">
-        <v>1954.301232334353</v>
+        <v>2040.834140551283</v>
       </c>
       <c r="X26" t="n">
-        <v>1580.835474073273</v>
+        <v>1667.368382290203</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.835474073273</v>
+        <v>1667.368382290203</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
         <v>1557.865593173221</v>
@@ -6329,28 +6329,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2321.315195847366</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2121.953872694535</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1893.77636876425</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1658.624260532507</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1404.386903804306</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1196.535403598773</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>988.7751048338188</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C28" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D28" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E28" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F28" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G28" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
-        <v>182.2848167158907</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K28" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V28" t="n">
-        <v>640.6381696807582</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W28" t="n">
-        <v>351.2209996437976</v>
+        <v>96.53651143791052</v>
       </c>
       <c r="X28" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y28" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1102.483137425484</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C29" t="n">
-        <v>898.669009984319</v>
+        <v>852.7295806534291</v>
       </c>
       <c r="D29" t="n">
-        <v>540.4033113775685</v>
+        <v>852.7295806534291</v>
       </c>
       <c r="E29" t="n">
-        <v>540.4033113775685</v>
+        <v>466.9413280551849</v>
       </c>
       <c r="F29" t="n">
-        <v>540.4033113775685</v>
+        <v>55.95542326557734</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6481,34 +6481,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T29" t="n">
-        <v>2040.094374027287</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U29" t="n">
-        <v>1786.314680039169</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V29" t="n">
-        <v>1455.251792695598</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W29" t="n">
-        <v>1102.483137425484</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X29" t="n">
-        <v>1102.483137425484</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y29" t="n">
-        <v>1102.483137425484</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439335</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628066</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015553</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960998</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298476</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256328</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256328</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
         <v>2222.939999577549</v>
@@ -6575,10 +6575,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
         <v>1306.011707534488</v>
@@ -6587,7 +6587,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640016</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256328</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256328</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256328</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256328</v>
+        <v>277.709840893401</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256328</v>
+        <v>108.6096257168471</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256328</v>
+        <v>108.6096257168471</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K31" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>424.5997883913116</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T31" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="U31" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="V31" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="W31" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="X31" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913113</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>743.3107917011603</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C32" t="n">
-        <v>743.3107917011603</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D32" t="n">
-        <v>743.3107917011603</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E32" t="n">
-        <v>743.3107917011603</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F32" t="n">
-        <v>743.3107917011603</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2260.135352558088</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="U32" t="n">
-        <v>2187.207932640047</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="V32" t="n">
-        <v>1856.145045296476</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="W32" t="n">
-        <v>1503.376390026362</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="X32" t="n">
-        <v>1129.910631765282</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y32" t="n">
-        <v>1129.910631765282</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439335</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628066</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015553</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960998</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298476</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256328</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
         <v>112.9860412505444</v>
@@ -6785,7 +6785,7 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M33" t="n">
         <v>1222.807150561437</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2351.500645316596</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494433</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.24906426269</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640016</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="C34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="D34" t="n">
-        <v>490.5215302684225</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="E34" t="n">
-        <v>342.6084366860293</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="F34" t="n">
-        <v>195.718489188119</v>
+        <v>266.0109893060261</v>
       </c>
       <c r="G34" t="n">
-        <v>195.718489188119</v>
+        <v>266.0109893060261</v>
       </c>
       <c r="H34" t="n">
         <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2109.924739284593</v>
+        <v>1091.865194649803</v>
       </c>
       <c r="C35" t="n">
-        <v>1740.962222344181</v>
+        <v>1091.865194649803</v>
       </c>
       <c r="D35" t="n">
-        <v>1382.696523737431</v>
+        <v>1091.865194649803</v>
       </c>
       <c r="E35" t="n">
-        <v>996.9082711391864</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F35" t="n">
-        <v>585.9223663495789</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6940,16 +6940,16 @@
         <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6967,22 +6967,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U35" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V35" t="n">
-        <v>2109.924739284593</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W35" t="n">
-        <v>2109.924739284593</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="X35" t="n">
-        <v>2109.924739284593</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="Y35" t="n">
-        <v>2109.924739284593</v>
+        <v>1478.465034713924</v>
       </c>
     </row>
     <row r="36">
@@ -7016,40 +7016,40 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2421.750760044275</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.353028937149</v>
+        <v>2254.378424635692</v>
       </c>
       <c r="T36" t="n">
-        <v>2061.991705784318</v>
+        <v>2055.017101482861</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="V36" t="n">
         <v>1826.839597552575</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>335.058361281315</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="C37" t="n">
-        <v>335.058361281315</v>
+        <v>250.9094076093209</v>
       </c>
       <c r="D37" t="n">
-        <v>335.058361281315</v>
+        <v>250.9094076093209</v>
       </c>
       <c r="E37" t="n">
-        <v>335.058361281315</v>
+        <v>250.9094076093209</v>
       </c>
       <c r="F37" t="n">
-        <v>188.1684137834047</v>
+        <v>250.9094076093209</v>
       </c>
       <c r="G37" t="n">
-        <v>188.1684137834047</v>
+        <v>250.9094076093209</v>
       </c>
       <c r="H37" t="n">
         <v>188.1684137834047</v>
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T37" t="n">
-        <v>624.4755313182757</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U37" t="n">
-        <v>624.4755313182757</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V37" t="n">
-        <v>624.4755313182757</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W37" t="n">
-        <v>335.058361281315</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X37" t="n">
-        <v>335.058361281315</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y37" t="n">
-        <v>335.058361281315</v>
+        <v>419.8455905372278</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.692097593841</v>
+        <v>1677.382536391272</v>
       </c>
       <c r="C38" t="n">
-        <v>852.7295806534291</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D38" t="n">
-        <v>494.4638820466786</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E38" t="n">
-        <v>494.4638820466786</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7177,10 +7177,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K38" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X38" t="n">
-        <v>1998.431269633774</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y38" t="n">
-        <v>1608.291937657963</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>882.175553373567</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C39" t="n">
-        <v>707.72252409244</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D39" t="n">
-        <v>558.7881144311888</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E39" t="n">
-        <v>399.5506594257333</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F39" t="n">
-        <v>253.0161014526182</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7259,10 +7259,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M39" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N39" t="n">
         <v>1557.865593173221</v>
@@ -7280,25 +7280,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T39" t="n">
-        <v>2183.569658254351</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U39" t="n">
-        <v>1955.392154324066</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V39" t="n">
-        <v>1720.240046092323</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W39" t="n">
-        <v>1466.002689364122</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X39" t="n">
-        <v>1258.151189158589</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y39" t="n">
-        <v>1050.390890393635</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="40">
@@ -7341,43 +7341,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O40" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="T40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="V40" t="n">
-        <v>640.6381696807582</v>
+        <v>233.2920031906222</v>
       </c>
       <c r="W40" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X40" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.4284205002675</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1263.781575849841</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C41" t="n">
-        <v>1263.781575849841</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.781575849841</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>835.9038449955965</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>424.9179402059889</v>
       </c>
       <c r="G41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S41" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T41" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U41" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V41" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W41" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X41" t="n">
-        <v>2040.520747889775</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y41" t="n">
-        <v>1650.381415913963</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>882.175553373567</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C42" t="n">
-        <v>707.72252409244</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D42" t="n">
-        <v>558.7881144311888</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E42" t="n">
-        <v>399.5506594257333</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F42" t="n">
-        <v>253.0161014526182</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
         <v>114.9862139017798</v>
@@ -7490,25 +7490,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7523,19 +7523,19 @@
         <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1955.392154324066</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1720.240046092323</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W42" t="n">
-        <v>1466.002689364122</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X42" t="n">
-        <v>1258.151189158589</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y42" t="n">
-        <v>1050.390890393635</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
         <v>48.81975253256327</v>
@@ -7602,19 +7602,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>196.7328461149564</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W43" t="n">
-        <v>196.7328461149564</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X43" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y43" t="n">
-        <v>196.7328461149564</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.692097593841</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C44" t="n">
-        <v>852.7295806534291</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>852.7295806534291</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>466.9413280551849</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>55.95542326557734</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>55.95542326557734</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X44" t="n">
-        <v>1998.431269633774</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.291937657963</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="45">
@@ -7712,40 +7712,40 @@
         <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>333.3841980565167</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F45" t="n">
-        <v>186.8496400834017</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>519.8853873997637</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>519.8853873997637</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W46" t="n">
-        <v>230.468217362803</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X46" t="n">
-        <v>230.468217362803</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y46" t="n">
-        <v>230.468217362803</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>360.302996258564</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>434.3429150104481</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725693</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443441</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>340.482471640322</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.3053491854098</v>
+        <v>447.9802256040019</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.3053491854098</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453156</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>339.4781965639073</v>
       </c>
       <c r="M42" t="n">
-        <v>340.482471640322</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>22.66199212234864</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>237.9923479329824</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H12" t="n">
-        <v>39.6260774054074</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>130.4329506677114</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>80.08194108724507</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.4598605480533</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,13 +23500,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>124.9768988786786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>197.457446957953</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.8554155636027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23706,19 +23706,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>110.2819242472634</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>144.91707410101</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>95.57612995401141</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>322.9775972859467</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.052121280159156</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>132.3311100301909</v>
+        <v>59.92181085936167</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>85.18429140397296</v>
+        <v>306.2640483639032</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24062,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.7414833360074</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>38.02889906600382</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>42.83233239657494</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>135.525535025472</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>140.5246547470122</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24262,13 +24262,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>160.7298312187902</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
         <v>35.81287827175935</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
-        <v>27.53108528810277</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
         <v>213.8779974765521</v>
@@ -24420,13 +24420,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>289.1330474090805</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24502,10 +24502,10 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>195.1736968366755</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>40.31804732306512</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
-        <v>5.824761096838898</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
         <v>52.22830032617343</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24660,13 +24660,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>178.4700640727434</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>163.4969056042539</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>406.941475244448</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581273</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>78.76320018589206</v>
       </c>
       <c r="J31" t="n">
         <v>52.22830032617343</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.68444614652034</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>52.65209139485057</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>68.82180286983974</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581273</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>149.5801662719572</v>
+        <v>79.9905911552291</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25128,7 +25128,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>170.1972173880384</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>208.4666324929161</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.02889906600392</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>31.1240408075613</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>94.9411570349672</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25365,7 +25365,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>209.4588485691956</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
         <v>286.2872966473816</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>282.0003717366208</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>379.6941467928692</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
@@ -25490,7 +25490,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>92.8862752558129</v>
       </c>
       <c r="T39" t="n">
-        <v>158.3910720113373</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.03939889391012</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>213.8779974765521</v>
@@ -25608,16 +25608,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>103.8954701851127</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>41.66858347344055</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>41.66858347344075</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,10 +25763,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>101.3176750272839</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>206.8512309729332</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25842,16 +25842,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>98.9586696410658</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>178.4700640727432</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>338.5417824984718</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>319.1281168759456</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>92.88627525581315</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>47.70156664044319</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>166.742042189197</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605296.3378644309</v>
+        <v>605296.337864431</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605296.3378644309</v>
+        <v>605296.3378644311</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605296.3378644307</v>
+        <v>605296.3378644306</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605296.337864431</v>
+        <v>605296.3378644309</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605296.337864431</v>
+        <v>605296.3378644309</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>605296.3378644307</v>
+        <v>605296.3378644306</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605296.3378644307</v>
+        <v>605296.3378644309</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>605296.3378644306</v>
+        <v>605296.3378644307</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26325,34 +26325,34 @@
         <v>352485.1114947453</v>
       </c>
       <c r="F2" t="n">
+        <v>352485.1114947453</v>
+      </c>
+      <c r="G2" t="n">
         <v>352485.1114947454</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="I2" t="n">
         <v>352485.1114947453</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>352485.1114947452</v>
       </c>
-      <c r="I2" t="n">
-        <v>352485.1114947452</v>
-      </c>
-      <c r="J2" t="n">
-        <v>352485.1114947454</v>
-      </c>
       <c r="K2" t="n">
-        <v>352485.1114947454</v>
+        <v>352485.1114947453</v>
       </c>
       <c r="L2" t="n">
         <v>352485.1114947452</v>
       </c>
       <c r="M2" t="n">
-        <v>352485.1114947453</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="N2" t="n">
         <v>352485.1114947451</v>
       </c>
       <c r="O2" t="n">
-        <v>352485.1114947453</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="P2" t="n">
         <v>352485.1114947454</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109308</v>
+        <v>92014.2452810931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,25 +26432,25 @@
         <v>9246.781534682701</v>
       </c>
       <c r="G4" t="n">
-        <v>9246.781534682699</v>
+        <v>9246.781534682701</v>
       </c>
       <c r="H4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="I4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="J4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="K4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="L4" t="n">
         <v>9246.781534682701</v>
       </c>
       <c r="M4" t="n">
-        <v>9246.781534682701</v>
+        <v>9246.781534682699</v>
       </c>
       <c r="N4" t="n">
         <v>9246.781534682701</v>
@@ -26459,7 +26459,7 @@
         <v>9246.781534682699</v>
       </c>
       <c r="P4" t="n">
-        <v>9246.781534682699</v>
+        <v>9246.781534682701</v>
       </c>
     </row>
     <row r="5">
@@ -26493,13 +26493,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
@@ -26524,46 +26524,46 @@
         <v>117133.8114126729</v>
       </c>
       <c r="C6" t="n">
-        <v>197903.2429442206</v>
+        <v>197903.2429442207</v>
       </c>
       <c r="D6" t="n">
         <v>197903.2429442207</v>
       </c>
       <c r="E6" t="n">
-        <v>-77301.93176678826</v>
+        <v>-71029.89965042922</v>
       </c>
       <c r="F6" t="n">
-        <v>292133.367365992</v>
+        <v>298405.399482351</v>
       </c>
       <c r="G6" t="n">
-        <v>292133.3673659919</v>
+        <v>298405.3994823511</v>
       </c>
       <c r="H6" t="n">
-        <v>292133.3673659919</v>
+        <v>298405.399482351</v>
       </c>
       <c r="I6" t="n">
-        <v>292133.3673659918</v>
+        <v>298405.399482351</v>
       </c>
       <c r="J6" t="n">
-        <v>229073.4247668857</v>
+        <v>235345.4568832446</v>
       </c>
       <c r="K6" t="n">
-        <v>292133.367365992</v>
+        <v>298405.399482351</v>
       </c>
       <c r="L6" t="n">
-        <v>292133.3673659919</v>
+        <v>298405.3994823509</v>
       </c>
       <c r="M6" t="n">
-        <v>200119.1220848988</v>
+        <v>206391.1542012579</v>
       </c>
       <c r="N6" t="n">
-        <v>292133.3673659918</v>
+        <v>298405.3994823508</v>
       </c>
       <c r="O6" t="n">
-        <v>292133.3673659919</v>
+        <v>298405.399482351</v>
       </c>
       <c r="P6" t="n">
-        <v>292133.367365992</v>
+        <v>298405.399482351</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445108</v>
@@ -26813,13 +26813,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="K4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7082848322977</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.1841744027037</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>158.0136288752071</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>38.27638683333814</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>37.22501299855256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27557,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>349.7082848322977</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27672,19 +27672,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>277.4605433024327</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>33.85287128531401</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>34.45552245002474</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27791,16 +27791,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>31.76164565717804</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>174.5457301614682</v>
       </c>
       <c r="G8" t="n">
-        <v>349.7082848322977</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,10 +27934,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27949,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,16 +27988,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>107.4954652305471</v>
       </c>
       <c r="X9" t="n">
-        <v>189.5021503144171</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31758,7 +31758,7 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
@@ -31770,7 +31770,7 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M11" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N11" t="n">
         <v>231.4177177265083</v>
@@ -31782,16 +31782,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q11" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517339</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S11" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I12" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
@@ -31855,22 +31855,22 @@
         <v>180.479234222958</v>
       </c>
       <c r="O12" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P12" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R12" t="n">
         <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U12" t="n">
         <v>0.04565318999214778</v>
@@ -31910,34 +31910,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L13" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q13" t="n">
         <v>48.71499726762114</v>
@@ -31946,13 +31946,13 @@
         <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T13" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32007,10 +32007,10 @@
         <v>204.6681601733202</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32019,16 +32019,16 @@
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S14" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K24" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R24" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P25" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K27" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R27" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L28" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P28" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K30" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R30" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L31" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P31" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K33" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R33" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L34" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P34" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K36" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R36" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L37" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P37" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K39" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R39" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L40" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P40" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K11" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L11" t="n">
         <v>386.5629597537834</v>
@@ -35424,13 +35424,13 @@
         <v>439.3515785419015</v>
       </c>
       <c r="O11" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P11" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q11" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35497,7 +35497,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.39668221774</v>
+        <v>468.0345334781882</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L13" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M13" t="n">
         <v>130.7783941571062</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K14" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L14" t="n">
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>48.64100594280238</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35743,10 +35743,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>374.1740901080621</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250345</v>
+        <v>497.1177477436266</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250345</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L39" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695264</v>
       </c>
       <c r="M39" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
-        <v>382.95671022767</v>
+        <v>351.5945614881181</v>
       </c>
       <c r="M42" t="n">
-        <v>374.1740901080621</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
         <v>499.39668221774</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
